--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43202149-D77C-7B4B-B840-EA4DC11A6240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC5F5B-16F0-0F44-8A3C-AECA495E1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="3220" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t>Volunteers showers</t>
   </si>
   <si>
-    <t>Gala des mérites&lt;br/&gt;CMAC-Thyssen</t>
-  </si>
-  <si>
-    <t>CMAC-Thyssen&lt;br/&gt;Awards ceremony</t>
-  </si>
-  <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Desjardins&lt;br/&gt;Awards ceremony</t>
+  </si>
+  <si>
+    <t>Gala des mérites&lt;br/&gt;Desjardins</t>
   </si>
 </sst>
 </file>
@@ -255,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,7 +583,7 @@
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -594,7 +594,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,10 +663,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -678,10 +678,10 @@
         <v>Administration</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -692,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,13 +703,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -748,10 +748,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -804,10 +804,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -832,10 +832,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -846,10 +846,10 @@
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,10 +860,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -874,10 +874,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC5F5B-16F0-0F44-8A3C-AECA495E1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4875CB-5B8F-E740-891F-CEA83E4FC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="3220" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,11 +853,11 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>37</v>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4875CB-5B8F-E740-891F-CEA83E4FC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEDD86-3CEE-1E42-A75E-009AFCA7AA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="3220" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="60" yWindow="560" windowWidth="23480" windowHeight="20380" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
-  <si>
-    <t>Directeur technique</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Salon VIP</t>
   </si>
@@ -85,9 +82,6 @@
     <t>Women staff members</t>
   </si>
   <si>
-    <t>VIP room</t>
-  </si>
-  <si>
     <t>Accompagnatrices féminines</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>Massothérapeute</t>
   </si>
   <si>
-    <t>Showers</t>
-  </si>
-  <si>
-    <t>Douches</t>
-  </si>
-  <si>
     <t>Accreditation</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>Valcourt Securtiy services</t>
   </si>
   <si>
-    <t>Douches pour CO</t>
-  </si>
-  <si>
     <t>Volunteers showers</t>
   </si>
   <si>
@@ -155,6 +140,96 @@
   </si>
   <si>
     <t>Gala des mérites&lt;br/&gt;Desjardins</t>
+  </si>
+  <si>
+    <t>Entrée principale</t>
+  </si>
+  <si>
+    <t>Main entrance</t>
+  </si>
+  <si>
+    <t>Théâtre Télébec</t>
+  </si>
+  <si>
+    <t>Male staff members</t>
+  </si>
+  <si>
+    <t>Accompagnateurs masculins</t>
+  </si>
+  <si>
+    <t>177 BX</t>
+  </si>
+  <si>
+    <t>177 B</t>
+  </si>
+  <si>
+    <t>160 B</t>
+  </si>
+  <si>
+    <t>118 A</t>
+  </si>
+  <si>
+    <t>1004 B</t>
+  </si>
+  <si>
+    <t>178 B</t>
+  </si>
+  <si>
+    <t>105 AX</t>
+  </si>
+  <si>
+    <t>Showers - Woman staff</t>
+  </si>
+  <si>
+    <t>Douches - Accompagnatrices féminines</t>
+  </si>
+  <si>
+    <t>129 A</t>
+  </si>
+  <si>
+    <t>Douches - CO</t>
+  </si>
+  <si>
+    <t>119 A</t>
+  </si>
+  <si>
+    <t>Showers - Men staff and athletes</t>
+  </si>
+  <si>
+    <t>Douches - athlètes et accompagnateurs masculins</t>
+  </si>
+  <si>
+    <t>Material deposit</t>
+  </si>
+  <si>
+    <t>Dépôt de matériel</t>
+  </si>
+  <si>
+    <t>271 B - 275 B</t>
+  </si>
+  <si>
+    <t>191 B</t>
+  </si>
+  <si>
+    <t>189 BX</t>
+  </si>
+  <si>
+    <t>242 A</t>
+  </si>
+  <si>
+    <t>Salon des athlètes</t>
+  </si>
+  <si>
+    <t>Athletes' lounge</t>
+  </si>
+  <si>
+    <t>VIP lounge</t>
+  </si>
+  <si>
+    <t>1006 B</t>
+  </si>
+  <si>
+    <t>Rencontres techniques</t>
   </si>
 </sst>
 </file>
@@ -554,7 +629,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,40 +640,48 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
         <f t="shared" ref="B2" si="0">A2</f>
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
+      <c r="C3" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>201</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
@@ -626,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,264 +726,316 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>A3</f>
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>C2</f>
+        <v>119 A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>C3</f>
+        <v>129 A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>A4</f>
         <v>Administration</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>C4</f>
+        <v>177 B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" ref="D5:D20" si="0">C5</f>
+        <v>177 BX</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Théâtre Télébec</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>160 B</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>189 BX</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>189 BX</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>191 B</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>242 A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>105 AX</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1004 B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>178 B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>118 A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>271 B - 275 B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1006 B</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
-    <sortCondition ref="C4:C14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition ref="C5:C15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEDD86-3CEE-1E42-A75E-009AFCA7AA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC78B5A-E6CB-244C-9BC7-460F4F65D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="560" windowWidth="23480" windowHeight="20380" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Salon VIP</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>Rencontres techniques</t>
+  </si>
+  <si>
+    <t>Material deposit - Neutral support</t>
+  </si>
+  <si>
+    <t>Dépôt de matérie -  Dépannage neutre</t>
   </si>
 </sst>
 </file>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,8 +1029,20 @@
         <v>1006 B</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f t="shared" ref="D21" si="1">C21</f>
+        <v>TBD</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC78B5A-E6CB-244C-9BC7-460F4F65D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4376F3DB-BD23-3440-954F-F8146360BB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="560" windowWidth="23480" windowHeight="20380" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="66260" yWindow="500" windowWidth="34080" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Salon VIP</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Dépôt de matériel</t>
   </si>
   <si>
-    <t>271 B - 275 B</t>
-  </si>
-  <si>
     <t>191 B</t>
   </si>
   <si>
@@ -235,7 +232,61 @@
     <t>Material deposit - Neutral support</t>
   </si>
   <si>
-    <t>Dépôt de matérie -  Dépannage neutre</t>
+    <t>201 D</t>
+  </si>
+  <si>
+    <t>200 D</t>
+  </si>
+  <si>
+    <t>228 B</t>
+  </si>
+  <si>
+    <t>Entrepôt</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>187 B</t>
+  </si>
+  <si>
+    <t>Lavage</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>196 B</t>
+  </si>
+  <si>
+    <t>206 D - 207 D</t>
+  </si>
+  <si>
+    <t>Bénévoles transport</t>
+  </si>
+  <si>
+    <t>Driver room</t>
+  </si>
+  <si>
+    <t>205 D</t>
+  </si>
+  <si>
+    <t>Volunteers' lounge</t>
+  </si>
+  <si>
+    <t>Salon des bénévoles</t>
+  </si>
+  <si>
+    <t>220 A</t>
+  </si>
+  <si>
+    <t>257 B</t>
+  </si>
+  <si>
+    <t>Dépôt de matériel -  Dépannage neutre</t>
+  </si>
+  <si>
+    <t>277 B</t>
   </si>
 </sst>
 </file>
@@ -635,7 +686,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,7 +715,7 @@
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -674,8 +725,8 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -685,8 +736,8 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1">
-        <v>201</v>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -715,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -858,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -873,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -882,13 +933,13 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -900,14 +951,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>257 B</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -977,11 +1028,11 @@
         <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TBD</v>
+        <v>228 B</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1007,22 +1058,22 @@
         <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>271 B - 275 B</v>
+        <v>206 D - 207 D</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1031,25 +1082,70 @@
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f t="shared" ref="D21" si="1">C21</f>
+        <f t="shared" ref="D21:D23" si="1">C21</f>
         <v>TBD</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>187 B</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>196 B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4376F3DB-BD23-3440-954F-F8146360BB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDAF0D-2217-6B4F-AD7F-A755EBD7776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66260" yWindow="500" windowWidth="34080" windowHeight="28180" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -271,12 +271,6 @@
     <t>205 D</t>
   </si>
   <si>
-    <t>Volunteers' lounge</t>
-  </si>
-  <si>
-    <t>Salon des bénévoles</t>
-  </si>
-  <si>
     <t>220 A</t>
   </si>
   <si>
@@ -287,6 +281,12 @@
   </si>
   <si>
     <t>277 B</t>
+  </si>
+  <si>
+    <t>Volunteers' rest room</t>
+  </si>
+  <si>
+    <t>Salle de repos des bénévoles</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1085,7 +1085,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
@@ -1135,16 +1135,24 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D24" s="1" t="str">
+        <f>C24</f>
+        <v>205 D</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
+      <c r="D25" s="1" t="str">
+        <f>C25</f>
+        <v>220 A</v>
       </c>
     </row>
   </sheetData>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDAF0D-2217-6B4F-AD7F-A755EBD7776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AEB739-9BD1-AF4B-BEDF-7781672F7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="34320" yWindow="3360" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>Salon VIP</t>
   </si>
@@ -130,24 +130,12 @@
     <t>Valcourt Securtiy services</t>
   </si>
   <si>
-    <t>Volunteers showers</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Desjardins&lt;br/&gt;Awards ceremony</t>
   </si>
   <si>
     <t>Gala des mérites&lt;br/&gt;Desjardins</t>
   </si>
   <si>
-    <t>Entrée principale</t>
-  </si>
-  <si>
-    <t>Main entrance</t>
-  </si>
-  <si>
     <t>Théâtre Télébec</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>160 B</t>
   </si>
   <si>
-    <t>118 A</t>
-  </si>
-  <si>
     <t>1004 B</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>129 A</t>
   </si>
   <si>
-    <t>Douches - CO</t>
-  </si>
-  <si>
     <t>119 A</t>
   </si>
   <si>
@@ -238,9 +220,6 @@
     <t>200 D</t>
   </si>
   <si>
-    <t>228 B</t>
-  </si>
-  <si>
     <t>Entrepôt</t>
   </si>
   <si>
@@ -268,15 +247,9 @@
     <t>Driver room</t>
   </si>
   <si>
-    <t>205 D</t>
-  </si>
-  <si>
     <t>220 A</t>
   </si>
   <si>
-    <t>257 B</t>
-  </si>
-  <si>
     <t>Dépôt de matériel -  Dépannage neutre</t>
   </si>
   <si>
@@ -287,6 +260,24 @@
   </si>
   <si>
     <t>Salle de repos des bénévoles</t>
+  </si>
+  <si>
+    <t>183 B</t>
+  </si>
+  <si>
+    <t>262 B</t>
+  </si>
+  <si>
+    <t>205 B</t>
+  </si>
+  <si>
+    <t>Dépôt de matériel -  Acceuil / Accréditation</t>
+  </si>
+  <si>
+    <t>Material deposit - Reception / Accréditation</t>
+  </si>
+  <si>
+    <t>206 B</t>
   </si>
 </sst>
 </file>
@@ -373,7 +364,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -685,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -715,7 +717,7 @@
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -726,18 +728,18 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,370 +797,374 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>C2</f>
-        <v>119 A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>183 B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>A3</f>
+        <v>Administration</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>C3</f>
-        <v>129 A</v>
+        <v>177 B</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>A4</f>
-        <v>Administration</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>C4</f>
-        <v>177 B</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" ref="D5:D20" si="0">C5</f>
-        <v>177 BX</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>1004 B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>C5</f>
+        <v>206 B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Théâtre Télébec</v>
+        <f>C6</f>
+        <v>191 B</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>C7</f>
+        <v>177 BX</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>C8</f>
+        <v>206 D - 207 D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6">
+        <v>102</v>
+      </c>
+      <c r="D9" s="6">
+        <f>C9</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>C10</f>
+        <v>129 A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>C11</f>
+        <v>119 A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>C12</f>
+        <v>187 B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>C13</f>
+        <v>Théâtre Télébec</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>C14</f>
+        <v>196 B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>C15</f>
+        <v>105 AX</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>C16</f>
         <v>160 B</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>C17</f>
+        <v>262 B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f>C18</f>
+        <v>189 BX</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>C19</f>
         <v>189 BX</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>189 BX</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>191 B</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>242 A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>257 B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>105 AX</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>1004 B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>178 B</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>228 B</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>118 A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>206 D - 207 D</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>C20</f>
+        <v>220 A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>C21</f>
         <v>1006 B</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" ref="D21:D23" si="1">C21</f>
-        <v>TBD</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>187 B</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>196 B</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f>C22</f>
+        <v>242 A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f>C23</f>
+        <v>205 B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f>C24</f>
+        <v>178 B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>C24</f>
-        <v>205 D</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="str">
+      <c r="D25" s="6" t="str">
         <f>C25</f>
-        <v>220 A</v>
+        <v>183 B</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="C5:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+    <sortCondition ref="B2:B24"/>
   </sortState>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AEB739-9BD1-AF4B-BEDF-7781672F7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C8CD3-E958-5646-90FD-E00F19BCE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="3360" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>Salon VIP</t>
   </si>
@@ -278,6 +278,123 @@
   </si>
   <si>
     <t>206 B</t>
+  </si>
+  <si>
+    <t>Team Canada</t>
+  </si>
+  <si>
+    <t>Équipe Canada</t>
+  </si>
+  <si>
+    <t>283B</t>
+  </si>
+  <si>
+    <t>Team USA</t>
+  </si>
+  <si>
+    <t>Équipe USA</t>
+  </si>
+  <si>
+    <t>279B</t>
+  </si>
+  <si>
+    <t>Team France</t>
+  </si>
+  <si>
+    <t>276B</t>
+  </si>
+  <si>
+    <t>Team Japan</t>
+  </si>
+  <si>
+    <t>Équipe Japon</t>
+  </si>
+  <si>
+    <t>270B</t>
+  </si>
+  <si>
+    <t>Team Nigeria</t>
+  </si>
+  <si>
+    <t>Équipe Nigeria</t>
+  </si>
+  <si>
+    <t>267B</t>
+  </si>
+  <si>
+    <t>Team Mexico</t>
+  </si>
+  <si>
+    <t>Équipe Mexique</t>
+  </si>
+  <si>
+    <t>266B</t>
+  </si>
+  <si>
+    <t>Club Cycling Amos</t>
+  </si>
+  <si>
+    <t>280B</t>
+  </si>
+  <si>
+    <t>EC Subway</t>
+  </si>
+  <si>
+    <t>277B</t>
+  </si>
+  <si>
+    <t>CC Alliance</t>
+  </si>
+  <si>
+    <t>257B</t>
+  </si>
+  <si>
+    <t>Espoirs Quilicot</t>
+  </si>
+  <si>
+    <t>256B</t>
+  </si>
+  <si>
+    <t>NorthStar Development Cycling</t>
+  </si>
+  <si>
+    <t>275B</t>
+  </si>
+  <si>
+    <t>PNW Racing</t>
+  </si>
+  <si>
+    <t>271B</t>
+  </si>
+  <si>
+    <t>Vantaggio Fitness &amp; Nutrition</t>
+  </si>
+  <si>
+    <t>230B</t>
+  </si>
+  <si>
+    <t>K.W. Cycling Academy</t>
+  </si>
+  <si>
+    <t>229B</t>
+  </si>
+  <si>
+    <t>Team Quebec</t>
+  </si>
+  <si>
+    <t>228B</t>
+  </si>
+  <si>
+    <t>Ignite Jr Cycling</t>
+  </si>
+  <si>
+    <t>214B</t>
+  </si>
+  <si>
+    <t>Team Colombie</t>
+  </si>
+  <si>
+    <t>263B</t>
   </si>
 </sst>
 </file>
@@ -685,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,22 +860,191 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,7 +1094,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f>C2</f>
+        <f t="shared" ref="D2:D25" si="0">C2</f>
         <v>183 B</v>
       </c>
     </row>
@@ -824,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>177 B</v>
       </c>
     </row>
@@ -839,7 +1125,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>1004 B</v>
       </c>
     </row>
@@ -854,7 +1140,7 @@
         <v>80</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>206 B</v>
       </c>
     </row>
@@ -869,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>191 B</v>
       </c>
     </row>
@@ -884,7 +1170,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>177 BX</v>
       </c>
     </row>
@@ -899,7 +1185,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>206 D - 207 D</v>
       </c>
     </row>
@@ -914,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="6">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -929,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>129 A</v>
       </c>
     </row>
@@ -944,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>119 A</v>
       </c>
     </row>
@@ -959,7 +1245,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>187 B</v>
       </c>
     </row>
@@ -974,7 +1260,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>C13</f>
+        <f t="shared" si="0"/>
         <v>Théâtre Télébec</v>
       </c>
     </row>
@@ -989,7 +1275,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>C14</f>
+        <f t="shared" si="0"/>
         <v>196 B</v>
       </c>
     </row>
@@ -1004,7 +1290,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>C15</f>
+        <f t="shared" si="0"/>
         <v>105 AX</v>
       </c>
     </row>
@@ -1019,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>C16</f>
+        <f t="shared" si="0"/>
         <v>160 B</v>
       </c>
     </row>
@@ -1034,7 +1320,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f>C17</f>
+        <f t="shared" si="0"/>
         <v>262 B</v>
       </c>
     </row>
@@ -1049,7 +1335,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>C18</f>
+        <f t="shared" si="0"/>
         <v>189 BX</v>
       </c>
     </row>
@@ -1064,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>C19</f>
+        <f t="shared" si="0"/>
         <v>189 BX</v>
       </c>
     </row>
@@ -1079,7 +1365,7 @@
         <v>70</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>C20</f>
+        <f t="shared" si="0"/>
         <v>220 A</v>
       </c>
     </row>
@@ -1094,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>C21</f>
+        <f t="shared" si="0"/>
         <v>1006 B</v>
       </c>
     </row>
@@ -1109,7 +1395,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v>242 A</v>
       </c>
     </row>
@@ -1124,7 +1410,7 @@
         <v>77</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v>205 B</v>
       </c>
     </row>
@@ -1139,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f>C24</f>
+        <f t="shared" si="0"/>
         <v>178 B</v>
       </c>
     </row>
@@ -1154,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f>C25</f>
+        <f t="shared" si="0"/>
         <v>183 B</v>
       </c>
     </row>

--- a/excel/locaux.xlsx
+++ b/excel/locaux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C8CD3-E958-5646-90FD-E00F19BCE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB8EA3C-3E8C-5441-89C8-FCFBC69A419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPES" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>177 B</t>
   </si>
   <si>
-    <t>160 B</t>
-  </si>
-  <si>
     <t>1004 B</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>263B</t>
+  </si>
+  <si>
+    <t>190 B</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72262817-9D66-6D48-97C4-5126E8F8BB18}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>Équipe cycliste Subway</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -856,194 +856,194 @@
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE1C1D-3050-7F46-8ECF-3B76DBA9970E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="str">
         <f t="shared" ref="D2:D25" si="0">C2</f>
@@ -1122,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1152,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6">
         <v>102</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1287,7 +1287,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1302,11 +1302,11 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>160 B</v>
+        <v>190 B</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1314,10 +1314,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1407,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1422,7 +1422,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1431,13 +1431,13 @@
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
